--- a/biology/Zoologie/Gassendiceras/Gassendiceras.xlsx
+++ b/biology/Zoologie/Gassendiceras/Gassendiceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gassendiceras est un genre d'ammonites (mollusques céphalopodes marins éteints) de la famille des Hemihoplitidae, du Crétacé inférieur (Barrémien supérieur, Biozone à Vandenhekei) du Sud-Est de la France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gassendiceras est un genre d'ammonites (mollusques céphalopodes marins éteints) de la famille des Hemihoplitidae, du Crétacé inférieur (Barrémien supérieur, Biozone à Vandenhekei) du Sud-Est de la France.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gassendiceras a été créé en 2006 par les paléontologues français Didier Bert (d), Gérard Delanoy (d) et Stéphane Bersac (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gassendiceras a été créé en 2006 par les paléontologues français Didier Bert (d), Gérard Delanoy (d) et Stéphane Bersac (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom rend hommage au philosophe et savant français du XVIIe siècle Pierre Gassendi, natif de Champtercier près de Digne-les-Bains[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom rend hommage au philosophe et savant français du XVIIe siècle Pierre Gassendi, natif de Champtercier près de Digne-les-Bains.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Didier Bert, Gérard Delanoy et Stéphane Bersac, « Descriptions de représentants nouveaux ou peu connus de la famille des Hemihoplitidae Spath, 1924 (Barrémien supérieur, Sud-Est de la France) : conséquences taxinomiques et phylétiques », Annales du Muséum d'histoire naturelle de Nice, vol. 21,‎ 2006, p. 179-253 (ISSN 0336-4917)</t>
         </is>
